--- a/medicine/Premiers secours et secourisme/Véhicule_de_détection,_identification_et_prélèvement/Véhicule_de_détection,_identification_et_prélèvement.xlsx
+++ b/medicine/Premiers secours et secourisme/Véhicule_de_détection,_identification_et_prélèvement/Véhicule_de_détection,_identification_et_prélèvement.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>V%C3%A9hicule_de_d%C3%A9tection,_identification_et_pr%C3%A9l%C3%A8vement</t>
+          <t>Véhicule_de_détection,_identification_et_prélèvement</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Véhicule de Détection, d'Identification et de Prélèvement (VDIP) est un véhicule de reconnaissance qui a pour vocation de caractériser les problématiques Nucléaires, Radiologiques, Biologiques et Chimiques (risques NRBC) en étant équipé comme un laboratoire.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>V%C3%A9hicule_de_d%C3%A9tection,_identification_et_pr%C3%A9l%C3%A8vement</t>
+          <t>Véhicule_de_détection,_identification_et_prélèvement</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces véhicules sont équipés de matériels de terrain permettant le prélèvement, la détection et l'identification des agents radiologiques (radionucléides), biologiques (bactéries, virus et autres agents pathogènes), chimiques (toxiques industriels, toxiques de guerre) en zone contaminée et de réaliser des prélèvements de tout type de matrice (gaz, liquides, solides) pour les conditionner et les mettre à disposition de l'autorité judiciaire dans les meilleures conditions.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>V%C3%A9hicule_de_d%C3%A9tection,_identification_et_pr%C3%A9l%C3%A8vement</t>
+          <t>Véhicule_de_détection,_identification_et_prélèvement</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,20 +558,165 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">France
-Ce laboratoire mobile est basé sur un chassis Renault et a un équipage de trois personnes.
-Face à un événement mettant en œuvre des matières dangereuses, la première réponse de sécurité civile est de projeter des cellules mobiles d'interventions chimique et radiologique (CMIC et CMIR) et le service du déminage puis les unités d'instruction et d'intervention de la Sécurité civile (UIISC), la Cellule nationale nucléaire radiologique biologique chimique (C2NRBC)[1].
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce laboratoire mobile est basé sur un chassis Renault et a un équipage de trois personnes.
+Face à un événement mettant en œuvre des matières dangereuses, la première réponse de sécurité civile est de projeter des cellules mobiles d'interventions chimique et radiologique (CMIC et CMIR) et le service du déminage puis les unités d'instruction et d'intervention de la Sécurité civile (UIISC), la Cellule nationale nucléaire radiologique biologique chimique (C2NRBC).
 Le VDIP constitue une réponse intermédiaire entre les CMIC, CMIR et les laboratoires du réseau national Biotox Piratox pour réaliser les analyses.
-Le VDIP est le fruit d'une longue maturation, issue des propositions du livre blanc de la défense et de la sécurité nationale[2]En premier lieu, ces véhicules doivent défendre les plus grandes agglomérations françaises, par une dotation d'état.
-En 2016, l'agglomération parisienne possède un VDIP, qui est armé conjointement par la brigade de sapeurs-pompiers de Paris (BSPP) et le laboratoire central de la préfecture de police (LCPP). L'agglomération messine possède un VDIP[3], le Bataillon de marins-pompiers de Marseille (BMPM) en possède un également, ainsi que le SDMIS du Rhône[4].
-Allemagne
-L'Allemagne met en oeuvre le TPz Fuchs.
-Espagne
-En Espagne, la détection NRBC mobile est du ressort militaire et assurée par plusieurs Blindé moyen sur roues équipés.
-Russie
-La Russie dispose de plusieurs BTR-80/RKhM-6 pour la reconnaissance NRBC.
-Suisse
-En Suisse, la tâche est confiée à des véhicules GMTF et une dizaine de véhicule de reconnaissance ABC 08.
+Le VDIP est le fruit d'une longue maturation, issue des propositions du livre blanc de la défense et de la sécurité nationaleEn premier lieu, ces véhicules doivent défendre les plus grandes agglomérations françaises, par une dotation d'état.
+En 2016, l'agglomération parisienne possède un VDIP, qui est armé conjointement par la brigade de sapeurs-pompiers de Paris (BSPP) et le laboratoire central de la préfecture de police (LCPP). L'agglomération messine possède un VDIP, le Bataillon de marins-pompiers de Marseille (BMPM) en possède un également, ainsi que le SDMIS du Rhône.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Véhicule_de_détection,_identification_et_prélèvement</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/V%C3%A9hicule_de_d%C3%A9tection,_identification_et_pr%C3%A9l%C3%A8vement</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dans le monde</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Allemagne</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Allemagne met en oeuvre le TPz Fuchs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Véhicule_de_détection,_identification_et_prélèvement</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/V%C3%A9hicule_de_d%C3%A9tection,_identification_et_pr%C3%A9l%C3%A8vement</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Dans le monde</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Espagne</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Espagne, la détection NRBC mobile est du ressort militaire et assurée par plusieurs Blindé moyen sur roues équipés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Véhicule_de_détection,_identification_et_prélèvement</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/V%C3%A9hicule_de_d%C3%A9tection,_identification_et_pr%C3%A9l%C3%A8vement</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Dans le monde</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Russie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Russie dispose de plusieurs BTR-80/RKhM-6 pour la reconnaissance NRBC.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Véhicule_de_détection,_identification_et_prélèvement</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/V%C3%A9hicule_de_d%C3%A9tection,_identification_et_pr%C3%A9l%C3%A8vement</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Dans le monde</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Suisse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Suisse, la tâche est confiée à des véhicules GMTF et une dizaine de véhicule de reconnaissance ABC 08.
 </t>
         </is>
       </c>
